--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J2">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N2">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q2">
-        <v>23.07705592788522</v>
+        <v>0.2336171785231111</v>
       </c>
       <c r="R2">
-        <v>207.693503350967</v>
+        <v>2.102554606708</v>
       </c>
       <c r="S2">
-        <v>0.04619313125137163</v>
+        <v>0.01474176340875886</v>
       </c>
       <c r="T2">
-        <v>0.04619313125137164</v>
+        <v>0.01474176340875887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J3">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P3">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q3">
-        <v>333.6726087153718</v>
+        <v>5.790306803768444</v>
       </c>
       <c r="R3">
-        <v>3003.053478438346</v>
+        <v>52.112761233916</v>
       </c>
       <c r="S3">
-        <v>0.667909401335373</v>
+        <v>0.3653812339696448</v>
       </c>
       <c r="T3">
-        <v>0.667909401335373</v>
+        <v>0.3653812339696449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J4">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N4">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q4">
-        <v>132.6373997001989</v>
+        <v>2.843520598641778</v>
       </c>
       <c r="R4">
-        <v>1193.73659730179</v>
+        <v>25.591685387776</v>
       </c>
       <c r="S4">
-        <v>0.2654990667933697</v>
+        <v>0.1794324722955362</v>
       </c>
       <c r="T4">
-        <v>0.2654990667933698</v>
+        <v>0.1794324722955362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H5">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N5">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q5">
-        <v>0.4805372227264444</v>
+        <v>0.1838877717175555</v>
       </c>
       <c r="R5">
-        <v>4.324835004538</v>
+        <v>1.654989945458</v>
       </c>
       <c r="S5">
-        <v>0.0009618869525618223</v>
+        <v>0.01160372726681094</v>
       </c>
       <c r="T5">
-        <v>0.0009618869525618223</v>
+        <v>0.01160372726681094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H6">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>61.843018</v>
       </c>
       <c r="O6">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P6">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q6">
-        <v>6.948118043871555</v>
+        <v>4.557741097796222</v>
       </c>
       <c r="R6">
-        <v>62.533062394844</v>
+        <v>41.019669880166</v>
       </c>
       <c r="S6">
-        <v>0.01390798417933178</v>
+        <v>0.2876035973332414</v>
       </c>
       <c r="T6">
-        <v>0.01390798417933178</v>
+        <v>0.2876035973332414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H7">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N7">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q7">
-        <v>2.761929766117778</v>
+        <v>2.238228669752889</v>
       </c>
       <c r="R7">
-        <v>24.85736789506</v>
+        <v>20.144058027776</v>
       </c>
       <c r="S7">
-        <v>0.005528529487991768</v>
+        <v>0.1412372057260079</v>
       </c>
       <c r="T7">
-        <v>0.005528529487991768</v>
+        <v>0.141237205726008</v>
       </c>
     </row>
   </sheetData>
